--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCD/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCD/20/seed5/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.7386</v>
+        <v>-12.3861</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -502,7 +502,7 @@
         <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-14.1829</v>
+        <v>-14.2259</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
@@ -539,7 +539,7 @@
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.977799999999995</v>
+        <v>-7.590799999999997</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -553,10 +553,10 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-11.90259999999999</v>
+        <v>-12.01219999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.201199999999999</v>
+        <v>-7.2578</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -570,10 +570,10 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.33689999999999</v>
+        <v>-12.14249999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.552400000000003</v>
+        <v>-7.686000000000004</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -618,7 +618,7 @@
         <v>-22.23</v>
       </c>
       <c r="B11" t="n">
-        <v>5.919300000000002</v>
+        <v>6.041200000000001</v>
       </c>
       <c r="C11" t="n">
         <v>-13.87</v>
@@ -635,10 +635,10 @@
         <v>-24</v>
       </c>
       <c r="B12" t="n">
-        <v>5.441899999999999</v>
+        <v>5.345499999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>-14.60820000000001</v>
+        <v>-14.67390000000002</v>
       </c>
       <c r="D12" t="n">
         <v>-10.06</v>
@@ -672,7 +672,7 @@
         <v>8.33</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.13899999999999</v>
+        <v>-12.15199999999999</v>
       </c>
       <c r="D14" t="n">
         <v>-7.97</v>
@@ -686,7 +686,7 @@
         <v>-21.67</v>
       </c>
       <c r="B15" t="n">
-        <v>5.944400000000002</v>
+        <v>5.9954</v>
       </c>
       <c r="C15" t="n">
         <v>-10.67</v>
@@ -760,7 +760,7 @@
         <v>-14.32</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.767399999999988</v>
+        <v>-8.549499999999988</v>
       </c>
       <c r="E19" t="n">
         <v>13.12</v>
@@ -794,7 +794,7 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.5893</v>
+        <v>-7.703199999999999</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
@@ -808,7 +808,7 @@
         <v>4.26</v>
       </c>
       <c r="C22" t="n">
-        <v>-11.45429999999999</v>
+        <v>-11.10149999999999</v>
       </c>
       <c r="D22" t="n">
         <v>-5.14</v>
@@ -845,7 +845,7 @@
         <v>-12.7</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.500199999999999</v>
+        <v>-7.299399999999996</v>
       </c>
       <c r="E24" t="n">
         <v>12.16</v>
@@ -862,7 +862,7 @@
         <v>-14.32</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.981199999999994</v>
+        <v>-7.726499999999995</v>
       </c>
       <c r="E25" t="n">
         <v>15.03</v>
